--- a/src/main/java/com/crm/qa/testdata/FreeCRMTestData.xlsx
+++ b/src/main/java/com/crm/qa/testdata/FreeCRMTestData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="10515" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="17205" windowHeight="6660"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>title</t>
   </si>
@@ -69,7 +70,10 @@
     <t>Dr.</t>
   </si>
   <si>
-    <t>Krish</t>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Mcdonald</t>
   </si>
 </sst>
 </file>
@@ -411,7 +415,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,10 +481,10 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>

--- a/src/main/java/com/crm/qa/testdata/FreeCRMTestData.xlsx
+++ b/src/main/java/com/crm/qa/testdata/FreeCRMTestData.xlsx
@@ -43,9 +43,6 @@
     <t>David</t>
   </si>
   <si>
-    <t>Cris</t>
-  </si>
-  <si>
     <t>Amazon</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>Mcdonald</t>
+  </si>
+  <si>
+    <t>Turner</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +442,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -450,41 +450,41 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
